--- a/5 семинар/Семинар5_задание3.xlsx
+++ b/5 семинар/Семинар5_задание3.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\system\Рабочий стол\Семинары Excel для АД\Семинары Excel для АД\Семинар 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Александра\Documents\Обучение-Разработчик\Специализация - Аналитик\1 четверть\GB4623_A_Basics_of_Excel\5 семинар\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DC3D09-822E-4536-B0BD-177FB3805B7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="1" r:id="rId1"/>
+    <sheet name="задание 3-2" sheetId="2" r:id="rId2"/>
+    <sheet name="задание 3-3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Данные!$C$5:$G$160</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'задание 3-2'!$A$5:$E$160</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'задание 3-3'!$A$1:$E$156</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
   <si>
     <t>Площадь</t>
   </si>
@@ -43,11 +49,26 @@
   <si>
     <t>Спальни</t>
   </si>
+  <si>
+    <t>Сумма комнат</t>
+  </si>
+  <si>
+    <t>СРЗНАЧ</t>
+  </si>
+  <si>
+    <t>ПРОМИТОГИ</t>
+  </si>
+  <si>
+    <t>считает только видимые ячейки</t>
+  </si>
+  <si>
+    <t>считатет весь диапазон</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
@@ -96,7 +117,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -109,6 +130,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
@@ -125,6 +147,135 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57030</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>267352</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>30922</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9627750" y="1600200"/>
+          <a:ext cx="3867922" cy="2621722"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>225562</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>152842</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8564880" y="716280"/>
+          <a:ext cx="3867922" cy="2621722"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>210322</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>107122</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400800" y="670560"/>
+          <a:ext cx="3867922" cy="2621722"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -203,23 +354,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -255,23 +389,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -447,21 +564,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C5:H160"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="C4:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:G160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
@@ -474,10 +602,18 @@
       <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>40.159999999999997</v>
       </c>
@@ -490,8 +626,20 @@
       <c r="F6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G6" s="5">
+        <f>E6+F6</f>
+        <v>9</v>
+      </c>
+      <c r="I6" s="6">
+        <f>AVERAGE(D6:D160)</f>
+        <v>3444918.4516129033</v>
+      </c>
+      <c r="J6" s="6">
+        <f>SUBTOTAL(1,D6:D160)</f>
+        <v>3912573.5779816513</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>27.62</v>
       </c>
@@ -504,8 +652,12 @@
       <c r="F7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G7" s="5">
+        <f t="shared" ref="G7:G70" si="0">E7+F7</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>22.62</v>
       </c>
@@ -518,8 +670,12 @@
       <c r="F8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>46.26</v>
       </c>
@@ -532,8 +688,12 @@
       <c r="F9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>25.5</v>
       </c>
@@ -546,8 +706,12 @@
       <c r="F10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G10" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>29.57</v>
       </c>
@@ -560,8 +724,12 @@
       <c r="F11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G11" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>28.68</v>
       </c>
@@ -574,8 +742,12 @@
       <c r="F12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G12" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>33.56</v>
       </c>
@@ -588,8 +760,12 @@
       <c r="F13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G13" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>25.36</v>
       </c>
@@ -602,8 +778,12 @@
       <c r="F14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G14" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>34.51</v>
       </c>
@@ -616,8 +796,12 @@
       <c r="F15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G15" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>28.07</v>
       </c>
@@ -630,8 +814,12 @@
       <c r="F16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>28.91</v>
       </c>
@@ -644,8 +832,12 @@
       <c r="F17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>29.84</v>
       </c>
@@ -658,8 +850,12 @@
       <c r="F18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>35.06</v>
       </c>
@@ -672,8 +868,12 @@
       <c r="F19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>26.94</v>
       </c>
@@ -686,8 +886,12 @@
       <c r="F20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>24.55</v>
       </c>
@@ -700,8 +904,12 @@
       <c r="F21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>27.32</v>
       </c>
@@ -714,8 +922,12 @@
       <c r="F22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>24.36</v>
       </c>
@@ -728,8 +940,12 @@
       <c r="F23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>38.94</v>
       </c>
@@ -742,8 +958,12 @@
       <c r="F24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>40.93</v>
       </c>
@@ -756,8 +976,12 @@
       <c r="F25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>15.48</v>
       </c>
@@ -770,8 +994,12 @@
       <c r="F26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>35.479999999999997</v>
       </c>
@@ -784,8 +1012,12 @@
       <c r="F27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>35.78</v>
       </c>
@@ -798,8 +1030,12 @@
       <c r="F28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>46.27</v>
       </c>
@@ -812,8 +1048,12 @@
       <c r="F29">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>29.76</v>
       </c>
@@ -826,8 +1066,12 @@
       <c r="F30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>37.799999999999997</v>
       </c>
@@ -840,8 +1084,12 @@
       <c r="F31">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>17.11</v>
       </c>
@@ -854,8 +1102,12 @@
       <c r="F32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>31.24</v>
       </c>
@@ -868,8 +1120,12 @@
       <c r="F33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>29.92</v>
       </c>
@@ -882,8 +1138,12 @@
       <c r="F34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>42.77</v>
       </c>
@@ -896,8 +1156,12 @@
       <c r="F35">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>25.27</v>
       </c>
@@ -910,8 +1174,12 @@
       <c r="F36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C37">
         <v>37.479999999999997</v>
       </c>
@@ -924,8 +1192,12 @@
       <c r="F37">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>18.63</v>
       </c>
@@ -938,8 +1210,12 @@
       <c r="F38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G38" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>26.82</v>
       </c>
@@ -952,8 +1228,12 @@
       <c r="F39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>34.26</v>
       </c>
@@ -966,8 +1246,12 @@
       <c r="F40">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>25.54</v>
       </c>
@@ -980,8 +1264,12 @@
       <c r="F41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G41" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>19.98</v>
       </c>
@@ -994,8 +1282,12 @@
       <c r="F42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>30.38</v>
       </c>
@@ -1008,8 +1300,12 @@
       <c r="F43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G43" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>48.05</v>
       </c>
@@ -1022,8 +1318,12 @@
       <c r="F44">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G44" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>19.48</v>
       </c>
@@ -1036,8 +1336,12 @@
       <c r="F45">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G45" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C46">
         <v>33.299999999999997</v>
       </c>
@@ -1050,8 +1354,12 @@
       <c r="F46">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G46" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C47">
         <v>18.2</v>
       </c>
@@ -1064,8 +1372,12 @@
       <c r="F47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G47" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>39.630000000000003</v>
       </c>
@@ -1078,8 +1390,12 @@
       <c r="F48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G48" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C49">
         <v>39.03</v>
       </c>
@@ -1092,8 +1408,12 @@
       <c r="F49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G49" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C50">
         <v>44.06</v>
       </c>
@@ -1106,8 +1426,12 @@
       <c r="F50">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G50" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C51">
         <v>27.21</v>
       </c>
@@ -1120,8 +1444,12 @@
       <c r="F51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G51" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C52">
         <v>44.64</v>
       </c>
@@ -1134,8 +1462,12 @@
       <c r="F52">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G52" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C53">
         <v>24.01</v>
       </c>
@@ -1148,8 +1480,12 @@
       <c r="F53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G53" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C54">
         <v>42.79</v>
       </c>
@@ -1162,8 +1498,12 @@
       <c r="F54">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G54" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C55">
         <v>40.76</v>
       </c>
@@ -1176,8 +1516,12 @@
       <c r="F55">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G55" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C56">
         <v>28.31</v>
       </c>
@@ -1190,8 +1534,12 @@
       <c r="F56">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G56" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C57">
         <v>45.08</v>
       </c>
@@ -1204,8 +1552,12 @@
       <c r="F57">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G57" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C58">
         <v>19.72</v>
       </c>
@@ -1218,8 +1570,12 @@
       <c r="F58">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G58" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C59">
         <v>32.36</v>
       </c>
@@ -1232,8 +1588,12 @@
       <c r="F59">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G59" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C60">
         <v>19.739999999999998</v>
       </c>
@@ -1246,8 +1606,12 @@
       <c r="F60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G60" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C61">
         <v>22.81</v>
       </c>
@@ -1260,8 +1624,12 @@
       <c r="F61">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G61" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C62">
         <v>47.3</v>
       </c>
@@ -1274,8 +1642,12 @@
       <c r="F62">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G62" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C63">
         <v>47.42</v>
       </c>
@@ -1288,8 +1660,12 @@
       <c r="F63">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G63" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C64">
         <v>34.119999999999997</v>
       </c>
@@ -1302,8 +1678,12 @@
       <c r="F64">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G64" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C65">
         <v>21.12</v>
       </c>
@@ -1316,8 +1696,12 @@
       <c r="F65">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G65" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C66">
         <v>19.36</v>
       </c>
@@ -1330,8 +1714,12 @@
       <c r="F66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G66" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C67">
         <v>29.6</v>
       </c>
@@ -1344,8 +1732,12 @@
       <c r="F67">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G67" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C68">
         <v>46</v>
       </c>
@@ -1358,8 +1750,12 @@
       <c r="F68">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G68" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C69">
         <v>26.62</v>
       </c>
@@ -1372,8 +1768,12 @@
       <c r="F69">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G69" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C70">
         <v>39.9</v>
       </c>
@@ -1386,8 +1786,12 @@
       <c r="F70">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G70" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C71">
         <v>32.619999999999997</v>
       </c>
@@ -1400,8 +1804,12 @@
       <c r="F71">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G71" s="5">
+        <f t="shared" ref="G71:G134" si="1">E71+F71</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C72">
         <v>40.909999999999997</v>
       </c>
@@ -1414,8 +1822,12 @@
       <c r="F72">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G72" s="5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C73">
         <v>37.26</v>
       </c>
@@ -1428,8 +1840,12 @@
       <c r="F73">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G73" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C74">
         <v>27.31</v>
       </c>
@@ -1442,8 +1858,12 @@
       <c r="F74">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G74" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C75">
         <v>37.159999999999997</v>
       </c>
@@ -1456,8 +1876,12 @@
       <c r="F75">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G75" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C76">
         <v>27.94</v>
       </c>
@@ -1470,8 +1894,12 @@
       <c r="F76">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G76" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C77">
         <v>41.44</v>
       </c>
@@ -1484,8 +1912,12 @@
       <c r="F77">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G77" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C78">
         <v>44.7</v>
       </c>
@@ -1498,8 +1930,12 @@
       <c r="F78">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G78" s="5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C79">
         <v>32.67</v>
       </c>
@@ -1512,8 +1948,12 @@
       <c r="F79">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G79" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C80">
         <v>31.12</v>
       </c>
@@ -1526,8 +1966,12 @@
       <c r="F80">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G80" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C81">
         <v>46.88</v>
       </c>
@@ -1540,8 +1984,12 @@
       <c r="F81">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G81" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C82">
         <v>17.64</v>
       </c>
@@ -1554,8 +2002,12 @@
       <c r="F82">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G82" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C83">
         <v>24.78</v>
       </c>
@@ -1568,8 +2020,12 @@
       <c r="F83">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G83" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C84">
         <v>43.45</v>
       </c>
@@ -1582,8 +2038,12 @@
       <c r="F84">
         <v>6</v>
       </c>
-    </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G84" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C85">
         <v>49.3</v>
       </c>
@@ -1596,8 +2056,12 @@
       <c r="F85">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G85" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C86">
         <v>41.03</v>
       </c>
@@ -1610,8 +2074,12 @@
       <c r="F86">
         <v>6</v>
       </c>
-    </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G86" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C87">
         <v>40.24</v>
       </c>
@@ -1624,8 +2092,12 @@
       <c r="F87">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G87" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C88">
         <v>17.899999999999999</v>
       </c>
@@ -1638,8 +2110,12 @@
       <c r="F88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G88" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C89">
         <v>22.94</v>
       </c>
@@ -1652,8 +2128,12 @@
       <c r="F89">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G89" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C90">
         <v>31.77</v>
       </c>
@@ -1666,8 +2146,12 @@
       <c r="F90">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G90" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C91">
         <v>22.52</v>
       </c>
@@ -1680,8 +2164,12 @@
       <c r="F91">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G91" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C92">
         <v>46.27</v>
       </c>
@@ -1694,8 +2182,12 @@
       <c r="F92">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G92" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C93">
         <v>15.82</v>
       </c>
@@ -1708,8 +2200,12 @@
       <c r="F93">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G93" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C94">
         <v>39.68</v>
       </c>
@@ -1722,8 +2218,12 @@
       <c r="F94">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G94" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C95">
         <v>31.23</v>
       </c>
@@ -1736,8 +2236,12 @@
       <c r="F95">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G95" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C96">
         <v>27.61</v>
       </c>
@@ -1750,8 +2254,12 @@
       <c r="F96">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G96" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C97">
         <v>38.65</v>
       </c>
@@ -1764,8 +2272,12 @@
       <c r="F97">
         <v>5</v>
       </c>
-    </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G97" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C98">
         <v>33.71</v>
       </c>
@@ -1778,8 +2290,12 @@
       <c r="F98">
         <v>3</v>
       </c>
-    </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G98" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C99">
         <v>15.6</v>
       </c>
@@ -1792,8 +2308,12 @@
       <c r="F99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G99" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C100">
         <v>32.15</v>
       </c>
@@ -1806,8 +2326,12 @@
       <c r="F100">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G100" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C101">
         <v>44.66</v>
       </c>
@@ -1820,8 +2344,12 @@
       <c r="F101">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G101" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C102">
         <v>42.94</v>
       </c>
@@ -1834,8 +2362,12 @@
       <c r="F102">
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G102" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C103">
         <v>47.78</v>
       </c>
@@ -1848,8 +2380,12 @@
       <c r="F103">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G103" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C104">
         <v>30.36</v>
       </c>
@@ -1862,8 +2398,12 @@
       <c r="F104">
         <v>3</v>
       </c>
-    </row>
-    <row r="105" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G104" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C105">
         <v>21.12</v>
       </c>
@@ -1876,8 +2416,12 @@
       <c r="F105">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G105" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C106">
         <v>35.29</v>
       </c>
@@ -1890,8 +2434,12 @@
       <c r="F106">
         <v>5</v>
       </c>
-    </row>
-    <row r="107" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G106" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C107">
         <v>43.16</v>
       </c>
@@ -1904,8 +2452,12 @@
       <c r="F107">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G107" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C108">
         <v>35.770000000000003</v>
       </c>
@@ -1918,8 +2470,12 @@
       <c r="F108">
         <v>5</v>
       </c>
-    </row>
-    <row r="109" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G108" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C109">
         <v>33.4</v>
       </c>
@@ -1932,8 +2488,12 @@
       <c r="F109">
         <v>5</v>
       </c>
-    </row>
-    <row r="110" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G109" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C110">
         <v>28.65</v>
       </c>
@@ -1946,8 +2506,12 @@
       <c r="F110">
         <v>3</v>
       </c>
-    </row>
-    <row r="111" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G110" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C111">
         <v>44.48</v>
       </c>
@@ -1960,8 +2524,12 @@
       <c r="F111">
         <v>6</v>
       </c>
-    </row>
-    <row r="112" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G111" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C112">
         <v>26.75</v>
       </c>
@@ -1974,8 +2542,12 @@
       <c r="F112">
         <v>2</v>
       </c>
-    </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G112" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C113">
         <v>45.48</v>
       </c>
@@ -1988,8 +2560,12 @@
       <c r="F113">
         <v>5</v>
       </c>
-    </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G113" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C114">
         <v>43.63</v>
       </c>
@@ -2002,8 +2578,12 @@
       <c r="F114">
         <v>5</v>
       </c>
-    </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G114" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C115">
         <v>37.42</v>
       </c>
@@ -2016,8 +2596,12 @@
       <c r="F115">
         <v>5</v>
       </c>
-    </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G115" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C116">
         <v>43.26</v>
       </c>
@@ -2030,8 +2614,12 @@
       <c r="F116">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G116" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C117">
         <v>23.52</v>
       </c>
@@ -2044,8 +2632,12 @@
       <c r="F117">
         <v>3</v>
       </c>
-    </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G117" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C118">
         <v>28.16</v>
       </c>
@@ -2058,8 +2650,12 @@
       <c r="F118">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G118" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C119">
         <v>43.24</v>
       </c>
@@ -2072,8 +2668,12 @@
       <c r="F119">
         <v>6</v>
       </c>
-    </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G119" s="5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C120">
         <v>17.3</v>
       </c>
@@ -2086,8 +2686,12 @@
       <c r="F120">
         <v>2</v>
       </c>
-    </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G120" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C121">
         <v>35.57</v>
       </c>
@@ -2100,8 +2704,12 @@
       <c r="F121">
         <v>5</v>
       </c>
-    </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G121" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C122">
         <v>20.8</v>
       </c>
@@ -2114,8 +2722,12 @@
       <c r="F122">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G122" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C123">
         <v>22.42</v>
       </c>
@@ -2128,8 +2740,12 @@
       <c r="F123">
         <v>3</v>
       </c>
-    </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G123" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C124">
         <v>22.53</v>
       </c>
@@ -2142,8 +2758,12 @@
       <c r="F124">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G124" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C125">
         <v>21.88</v>
       </c>
@@ -2156,8 +2776,12 @@
       <c r="F125">
         <v>2</v>
       </c>
-    </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G125" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C126">
         <v>16.32</v>
       </c>
@@ -2170,8 +2794,12 @@
       <c r="F126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G126" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C127">
         <v>29.58</v>
       </c>
@@ -2184,8 +2812,12 @@
       <c r="F127">
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G127" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C128">
         <v>36.92</v>
       </c>
@@ -2198,8 +2830,12 @@
       <c r="F128">
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G128" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C129">
         <v>48.65</v>
       </c>
@@ -2212,8 +2848,12 @@
       <c r="F129">
         <v>5</v>
       </c>
-    </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G129" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C130">
         <v>39.229999999999997</v>
       </c>
@@ -2226,8 +2866,12 @@
       <c r="F130">
         <v>5</v>
       </c>
-    </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G130" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C131">
         <v>16</v>
       </c>
@@ -2240,8 +2884,12 @@
       <c r="F131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G131" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C132">
         <v>35.35</v>
       </c>
@@ -2254,8 +2902,12 @@
       <c r="F132">
         <v>4</v>
       </c>
-    </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G132" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C133">
         <v>37.25</v>
       </c>
@@ -2268,8 +2920,12 @@
       <c r="F133">
         <v>5</v>
       </c>
-    </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G133" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C134">
         <v>18.86</v>
       </c>
@@ -2282,8 +2938,12 @@
       <c r="F134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G134" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C135">
         <v>44.41</v>
       </c>
@@ -2296,8 +2956,12 @@
       <c r="F135">
         <v>5</v>
       </c>
-    </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G135" s="5">
+        <f t="shared" ref="G135:G160" si="2">E135+F135</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C136">
         <v>42.61</v>
       </c>
@@ -2310,8 +2974,12 @@
       <c r="F136">
         <v>4</v>
       </c>
-    </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G136" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C137">
         <v>43.59</v>
       </c>
@@ -2324,8 +2992,12 @@
       <c r="F137">
         <v>6</v>
       </c>
-    </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G137" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C138">
         <v>19.8</v>
       </c>
@@ -2338,8 +3010,12 @@
       <c r="F138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G138" s="5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C139">
         <v>17.73</v>
       </c>
@@ -2352,8 +3028,12 @@
       <c r="F139">
         <v>2</v>
       </c>
-    </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G139" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C140">
         <v>30.91</v>
       </c>
@@ -2366,8 +3046,12 @@
       <c r="F140">
         <v>3</v>
       </c>
-    </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G140" s="5">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C141">
         <v>15.2</v>
       </c>
@@ -2380,8 +3064,12 @@
       <c r="F141">
         <v>2</v>
       </c>
-    </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G141" s="5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C142">
         <v>40.299999999999997</v>
       </c>
@@ -2394,8 +3082,12 @@
       <c r="F142">
         <v>5</v>
       </c>
-    </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G142" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C143">
         <v>41.08</v>
       </c>
@@ -2408,8 +3100,12 @@
       <c r="F143">
         <v>4</v>
       </c>
-    </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G143" s="5">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C144">
         <v>25.53</v>
       </c>
@@ -2422,8 +3118,12 @@
       <c r="F144">
         <v>2</v>
       </c>
-    </row>
-    <row r="145" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G144" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C145">
         <v>28.04</v>
       </c>
@@ -2436,8 +3136,12 @@
       <c r="F145">
         <v>4</v>
       </c>
-    </row>
-    <row r="146" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G145" s="5">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C146">
         <v>36.520000000000003</v>
       </c>
@@ -2450,8 +3154,12 @@
       <c r="F146">
         <v>5</v>
       </c>
-    </row>
-    <row r="147" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G146" s="5">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C147">
         <v>33.229999999999997</v>
       </c>
@@ -2464,8 +3172,12 @@
       <c r="F147">
         <v>5</v>
       </c>
-    </row>
-    <row r="148" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G147" s="5">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C148">
         <v>39.72</v>
       </c>
@@ -2478,8 +3190,12 @@
       <c r="F148">
         <v>3</v>
       </c>
-    </row>
-    <row r="149" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G148" s="5">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C149">
         <v>35.74</v>
       </c>
@@ -2492,8 +3208,12 @@
       <c r="F149">
         <v>3</v>
       </c>
-    </row>
-    <row r="150" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G149" s="5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C150">
         <v>29.49</v>
       </c>
@@ -2506,8 +3226,12 @@
       <c r="F150">
         <v>4</v>
       </c>
-    </row>
-    <row r="151" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G150" s="5">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C151">
         <v>26.99</v>
       </c>
@@ -2520,8 +3244,12 @@
       <c r="F151">
         <v>3</v>
       </c>
-    </row>
-    <row r="152" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G151" s="5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C152">
         <v>22.18</v>
       </c>
@@ -2534,8 +3262,12 @@
       <c r="F152">
         <v>4</v>
       </c>
-    </row>
-    <row r="153" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G152" s="5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C153">
         <v>35.26</v>
       </c>
@@ -2548,8 +3280,12 @@
       <c r="F153">
         <v>5</v>
       </c>
-    </row>
-    <row r="154" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G153" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C154">
         <v>35.340000000000003</v>
       </c>
@@ -2562,8 +3298,12 @@
       <c r="F154">
         <v>3</v>
       </c>
-    </row>
-    <row r="155" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G154" s="5">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C155">
         <v>49.75</v>
       </c>
@@ -2576,8 +3316,12 @@
       <c r="F155">
         <v>5</v>
       </c>
-    </row>
-    <row r="156" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G155" s="5">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C156">
         <v>26.18</v>
       </c>
@@ -2590,8 +3334,12 @@
       <c r="F156">
         <v>4</v>
       </c>
-    </row>
-    <row r="157" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G156" s="5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C157">
         <v>46.55</v>
       </c>
@@ -2604,8 +3352,12 @@
       <c r="F157">
         <v>6</v>
       </c>
-    </row>
-    <row r="158" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G157" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C158">
         <v>34.89</v>
       </c>
@@ -2618,8 +3370,12 @@
       <c r="F158">
         <v>4</v>
       </c>
-    </row>
-    <row r="159" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G158" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C159">
         <v>45.26</v>
       </c>
@@ -2632,8 +3388,12 @@
       <c r="F159">
         <v>5</v>
       </c>
-    </row>
-    <row r="160" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G159" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C160">
         <v>46.76</v>
       </c>
@@ -2646,15 +3406,5766 @@
       <c r="F160">
         <v>6</v>
       </c>
+      <c r="G160" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="C5:G160">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="greaterThanOrEqual" val="6"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A4:I160"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>40.159999999999997</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4536960</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5">
+        <f>C6+D6</f>
+        <v>9</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>27.62</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2866760</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" ref="E7:E70" si="0">C7+D7</f>
+        <v>5</v>
+      </c>
+      <c r="H7" s="6">
+        <f>AVERAGE(C7:C161)</f>
+        <v>3.1948051948051948</v>
+      </c>
+      <c r="I7" s="6">
+        <f>SUBTOTAL(1,C7:C161)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>22.62</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2394140</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>46.26</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4992260</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>25.5</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2495000</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>29.57</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2979580</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>28.68</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3188760</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>33.56</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3757360</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>25.36</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2786720</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>34.51</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3489430</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>28.07</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3051210</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>28.91</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2819720</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>29.84</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2944960</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <f>SUBTOTAL(2,C18:C151)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>35.06</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3635880</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>26.94</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2934820</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>24.55</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2492250</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>27.32</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3137880</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>24.36</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2726520</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>38.94</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3842480</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>40.93</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4352070</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>15.48</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1822800</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>35.479999999999997</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4031840</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>35.78</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4044240</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>46.27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>5158350</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29.76</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2937440</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="B31" s="2">
+        <v>4115600</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>17.11</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1768340</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31.24</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3261520</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>29.92</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3112000</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>42.77</v>
+      </c>
+      <c r="B35" s="2">
+        <v>4725310</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>25.27</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2620650</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="B37" s="2">
+        <v>3953040</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>18.63</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1868480</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>26.82</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2855640</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>34.26</v>
+      </c>
+      <c r="B40" s="2">
+        <v>3568960</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>25.54</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2549680</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>19.98</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2018140</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>30.38</v>
+      </c>
+      <c r="B43" s="2">
+        <v>3339520</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>48.05</v>
+      </c>
+      <c r="B44" s="2">
+        <v>4632550</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>19.48</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2185400</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="B46" s="2">
+        <v>3610000</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>18.2</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2047400</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>39.630000000000003</v>
+      </c>
+      <c r="B48" s="2">
+        <v>3865960</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>39.03</v>
+      </c>
+      <c r="B49" s="2">
+        <v>3887850</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>44.06</v>
+      </c>
+      <c r="B50" s="2">
+        <v>4617880</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>27.21</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2568900</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>44.64</v>
+      </c>
+      <c r="B52" s="2">
+        <v>4491520</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>6</v>
+      </c>
+      <c r="E52" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>24.01</v>
+      </c>
+      <c r="B53" s="2">
+        <v>2541000</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>42.79</v>
+      </c>
+      <c r="B54" s="2">
+        <v>4750160</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>40.76</v>
+      </c>
+      <c r="B55" s="2">
+        <v>4232960</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>28.31</v>
+      </c>
+      <c r="B56" s="2">
+        <v>3135930</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>45.08</v>
+      </c>
+      <c r="B57" s="2">
+        <v>4923240</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>19.72</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1894520</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>32.36</v>
+      </c>
+      <c r="B59" s="2">
+        <v>3281840</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="B60" s="2">
+        <v>2172180</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>22.81</v>
+      </c>
+      <c r="B61" s="2">
+        <v>2466620</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>47.3</v>
+      </c>
+      <c r="B62" s="2">
+        <v>4517000</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>47.42</v>
+      </c>
+      <c r="B63" s="2">
+        <v>4907160</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>34.119999999999997</v>
+      </c>
+      <c r="B64" s="2">
+        <v>3589640</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>21.12</v>
+      </c>
+      <c r="B65" s="2">
+        <v>2335360</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>19.36</v>
+      </c>
+      <c r="B66" s="2">
+        <v>2054080</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>29.6</v>
+      </c>
+      <c r="B67" s="2">
+        <v>2981600</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>46</v>
+      </c>
+      <c r="B68" s="2">
+        <v>4702000</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>26.62</v>
+      </c>
+      <c r="B69" s="2">
+        <v>3034960</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>39.9</v>
+      </c>
+      <c r="B70" s="2">
+        <v>4250000</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>32.619999999999997</v>
+      </c>
+      <c r="B71" s="2">
+        <v>3376760</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71" s="5">
+        <f t="shared" ref="E71:E134" si="1">C71+D71</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>40.909999999999997</v>
+      </c>
+      <c r="B72" s="2">
+        <v>4799190</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>6</v>
+      </c>
+      <c r="E72" s="5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>37.26</v>
+      </c>
+      <c r="B73" s="2">
+        <v>4338600</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>27.31</v>
+      </c>
+      <c r="B74" s="2">
+        <v>2692520</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>37.159999999999997</v>
+      </c>
+      <c r="B75" s="2">
+        <v>3698720</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>27.94</v>
+      </c>
+      <c r="B76" s="2">
+        <v>3049880</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>41.44</v>
+      </c>
+      <c r="B77" s="2">
+        <v>4341120</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>44.7</v>
+      </c>
+      <c r="B78" s="2">
+        <v>4497100</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>6</v>
+      </c>
+      <c r="E78" s="5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>32.67</v>
+      </c>
+      <c r="B79" s="2">
+        <v>3421660</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>31.12</v>
+      </c>
+      <c r="B80" s="2">
+        <v>3465360</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>46.88</v>
+      </c>
+      <c r="B81" s="2">
+        <v>4659840</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="E81" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>17.64</v>
+      </c>
+      <c r="B82" s="2">
+        <v>1888720</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>24.78</v>
+      </c>
+      <c r="B83" s="2">
+        <v>2722780</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+      <c r="E83" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>43.45</v>
+      </c>
+      <c r="B84" s="2">
+        <v>4882250</v>
+      </c>
+      <c r="C84">
+        <v>4</v>
+      </c>
+      <c r="D84">
+        <v>6</v>
+      </c>
+      <c r="E84" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>49.3</v>
+      </c>
+      <c r="B85" s="2">
+        <v>5515100</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+      <c r="E85" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>41.03</v>
+      </c>
+      <c r="B86" s="2">
+        <v>4299910</v>
+      </c>
+      <c r="C86">
+        <v>4</v>
+      </c>
+      <c r="D86">
+        <v>6</v>
+      </c>
+      <c r="E86" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>40.24</v>
+      </c>
+      <c r="B87" s="2">
+        <v>3982080</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>5</v>
+      </c>
+      <c r="E87" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="B88" s="2">
+        <v>1921600</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>22.94</v>
+      </c>
+      <c r="B89" s="2">
+        <v>2562820</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>31.77</v>
+      </c>
+      <c r="B90" s="2">
+        <v>3619390</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>22.52</v>
+      </c>
+      <c r="B91" s="2">
+        <v>2404440</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+      <c r="E91" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>46.27</v>
+      </c>
+      <c r="B92" s="2">
+        <v>4701920</v>
+      </c>
+      <c r="C92">
+        <v>5</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+      <c r="E92" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>15.82</v>
+      </c>
+      <c r="B93" s="2">
+        <v>1634540</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>39.68</v>
+      </c>
+      <c r="B94" s="2">
+        <v>4287360</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="E94" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>31.23</v>
+      </c>
+      <c r="B95" s="2">
+        <v>3675300</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+      <c r="E95" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>27.61</v>
+      </c>
+      <c r="B96" s="2">
+        <v>3091440</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
+      <c r="E96" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>38.65</v>
+      </c>
+      <c r="B97" s="2">
+        <v>3951750</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>5</v>
+      </c>
+      <c r="E97" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>33.71</v>
+      </c>
+      <c r="B98" s="2">
+        <v>3348740</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+      <c r="E98" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>15.6</v>
+      </c>
+      <c r="B99" s="2">
+        <v>1651200</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>32.15</v>
+      </c>
+      <c r="B100" s="2">
+        <v>3125650</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>44.66</v>
+      </c>
+      <c r="B101" s="2">
+        <v>4453380</v>
+      </c>
+      <c r="C101">
+        <v>5</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+      <c r="E101" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>42.94</v>
+      </c>
+      <c r="B102" s="2">
+        <v>4616940</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>47.78</v>
+      </c>
+      <c r="B103" s="2">
+        <v>5038000</v>
+      </c>
+      <c r="C103">
+        <v>5</v>
+      </c>
+      <c r="D103">
+        <v>4</v>
+      </c>
+      <c r="E103" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>30.36</v>
+      </c>
+      <c r="B104" s="2">
+        <v>3216000</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <v>3</v>
+      </c>
+      <c r="E104" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>21.12</v>
+      </c>
+      <c r="B105" s="2">
+        <v>2041920</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>35.29</v>
+      </c>
+      <c r="B106" s="2">
+        <v>3703130</v>
+      </c>
+      <c r="C106">
+        <v>4</v>
+      </c>
+      <c r="D106">
+        <v>5</v>
+      </c>
+      <c r="E106" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>43.16</v>
+      </c>
+      <c r="B107" s="2">
+        <v>4230720</v>
+      </c>
+      <c r="C107">
+        <v>5</v>
+      </c>
+      <c r="D107">
+        <v>4</v>
+      </c>
+      <c r="E107" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>35.770000000000003</v>
+      </c>
+      <c r="B108" s="2">
+        <v>3642380</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108">
+        <v>5</v>
+      </c>
+      <c r="E108" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>33.4</v>
+      </c>
+      <c r="B109" s="2">
+        <v>3366200</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109">
+        <v>5</v>
+      </c>
+      <c r="E109" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>28.65</v>
+      </c>
+      <c r="B110" s="2">
+        <v>3045000</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="D110">
+        <v>3</v>
+      </c>
+      <c r="E110" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>44.48</v>
+      </c>
+      <c r="B111" s="2">
+        <v>5034880</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+      <c r="D111">
+        <v>6</v>
+      </c>
+      <c r="E111" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>26.75</v>
+      </c>
+      <c r="B112" s="2">
+        <v>3055750</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>45.48</v>
+      </c>
+      <c r="B113" s="2">
+        <v>4529640</v>
+      </c>
+      <c r="C113">
+        <v>5</v>
+      </c>
+      <c r="D113">
+        <v>5</v>
+      </c>
+      <c r="E113" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>43.63</v>
+      </c>
+      <c r="B114" s="2">
+        <v>4357590</v>
+      </c>
+      <c r="C114">
+        <v>5</v>
+      </c>
+      <c r="D114">
+        <v>5</v>
+      </c>
+      <c r="E114" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>37.42</v>
+      </c>
+      <c r="B115" s="2">
+        <v>3814900</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+      <c r="D115">
+        <v>5</v>
+      </c>
+      <c r="E115" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>43.26</v>
+      </c>
+      <c r="B116" s="2">
+        <v>4392960</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116">
+        <v>4</v>
+      </c>
+      <c r="E116" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>23.52</v>
+      </c>
+      <c r="B117" s="2">
+        <v>2488480</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
+      </c>
+      <c r="E117" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>28.16</v>
+      </c>
+      <c r="B118" s="2">
+        <v>2923360</v>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+      <c r="D118">
+        <v>4</v>
+      </c>
+      <c r="E118" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>43.24</v>
+      </c>
+      <c r="B119" s="2">
+        <v>4620760</v>
+      </c>
+      <c r="C119">
+        <v>5</v>
+      </c>
+      <c r="D119">
+        <v>6</v>
+      </c>
+      <c r="E119" s="5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>17.3</v>
+      </c>
+      <c r="B120" s="2">
+        <v>1933800</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>35.57</v>
+      </c>
+      <c r="B121" s="2">
+        <v>4050420</v>
+      </c>
+      <c r="C121">
+        <v>4</v>
+      </c>
+      <c r="D121">
+        <v>5</v>
+      </c>
+      <c r="E121" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>20.8</v>
+      </c>
+      <c r="B122" s="2">
+        <v>2054400</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>22.42</v>
+      </c>
+      <c r="B123" s="2">
+        <v>2200220</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <v>3</v>
+      </c>
+      <c r="E123" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>22.53</v>
+      </c>
+      <c r="B124" s="2">
+        <v>2170230</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>21.88</v>
+      </c>
+      <c r="B125" s="2">
+        <v>2481160</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>16.32</v>
+      </c>
+      <c r="B126" s="2">
+        <v>1581440</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>29.58</v>
+      </c>
+      <c r="B127" s="2">
+        <v>3030100</v>
+      </c>
+      <c r="C127">
+        <v>3</v>
+      </c>
+      <c r="D127">
+        <v>4</v>
+      </c>
+      <c r="E127" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>36.92</v>
+      </c>
+      <c r="B128" s="2">
+        <v>3653560</v>
+      </c>
+      <c r="C128">
+        <v>3</v>
+      </c>
+      <c r="D128">
+        <v>4</v>
+      </c>
+      <c r="E128" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>48.65</v>
+      </c>
+      <c r="B129" s="2">
+        <v>5067700</v>
+      </c>
+      <c r="C129">
+        <v>5</v>
+      </c>
+      <c r="D129">
+        <v>5</v>
+      </c>
+      <c r="E129" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>39.229999999999997</v>
+      </c>
+      <c r="B130" s="2">
+        <v>3908390</v>
+      </c>
+      <c r="C130">
+        <v>3</v>
+      </c>
+      <c r="D130">
+        <v>5</v>
+      </c>
+      <c r="E130" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>16</v>
+      </c>
+      <c r="B131" s="2">
+        <v>1644000</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>35.35</v>
+      </c>
+      <c r="B132" s="2">
+        <v>3861050</v>
+      </c>
+      <c r="C132">
+        <v>3</v>
+      </c>
+      <c r="D132">
+        <v>4</v>
+      </c>
+      <c r="E132" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>37.25</v>
+      </c>
+      <c r="B133" s="2">
+        <v>4005000</v>
+      </c>
+      <c r="C133">
+        <v>4</v>
+      </c>
+      <c r="D133">
+        <v>5</v>
+      </c>
+      <c r="E133" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>18.86</v>
+      </c>
+      <c r="B134" s="2">
+        <v>2059160</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>44.41</v>
+      </c>
+      <c r="B135" s="2">
+        <v>4874230</v>
+      </c>
+      <c r="C135">
+        <v>5</v>
+      </c>
+      <c r="D135">
+        <v>5</v>
+      </c>
+      <c r="E135" s="5">
+        <f t="shared" ref="E135:E160" si="2">C135+D135</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>42.61</v>
+      </c>
+      <c r="B136" s="2">
+        <v>4373170</v>
+      </c>
+      <c r="C136">
+        <v>4</v>
+      </c>
+      <c r="D136">
+        <v>4</v>
+      </c>
+      <c r="E136" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>43.59</v>
+      </c>
+      <c r="B137" s="2">
+        <v>4330280</v>
+      </c>
+      <c r="C137">
+        <v>4</v>
+      </c>
+      <c r="D137">
+        <v>6</v>
+      </c>
+      <c r="E137" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>19.8</v>
+      </c>
+      <c r="B138" s="2">
+        <v>1941200</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138" s="5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>17.73</v>
+      </c>
+      <c r="B139" s="2">
+        <v>1928460</v>
+      </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>30.91</v>
+      </c>
+      <c r="B140" s="2">
+        <v>3229180</v>
+      </c>
+      <c r="C140">
+        <v>4</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+      <c r="E140" s="5">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>15.2</v>
+      </c>
+      <c r="B141" s="2">
+        <v>1468000</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="E141" s="5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="B142" s="2">
+        <v>4612100</v>
+      </c>
+      <c r="C142">
+        <v>5</v>
+      </c>
+      <c r="D142">
+        <v>5</v>
+      </c>
+      <c r="E142" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>41.08</v>
+      </c>
+      <c r="B143" s="2">
+        <v>4409080</v>
+      </c>
+      <c r="C143">
+        <v>5</v>
+      </c>
+      <c r="D143">
+        <v>4</v>
+      </c>
+      <c r="E143" s="5">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>25.53</v>
+      </c>
+      <c r="B144" s="2">
+        <v>2519820</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="E144" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>28.04</v>
+      </c>
+      <c r="B145" s="2">
+        <v>3276360</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+      <c r="D145">
+        <v>4</v>
+      </c>
+      <c r="E145" s="5">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>36.520000000000003</v>
+      </c>
+      <c r="B146" s="2">
+        <v>3895480</v>
+      </c>
+      <c r="C146">
+        <v>4</v>
+      </c>
+      <c r="D146">
+        <v>5</v>
+      </c>
+      <c r="E146" s="5">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>33.229999999999997</v>
+      </c>
+      <c r="B147" s="2">
+        <v>3802380</v>
+      </c>
+      <c r="C147">
+        <v>4</v>
+      </c>
+      <c r="D147">
+        <v>5</v>
+      </c>
+      <c r="E147" s="5">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>39.72</v>
+      </c>
+      <c r="B148" s="2">
+        <v>3774800</v>
+      </c>
+      <c r="C148">
+        <v>4</v>
+      </c>
+      <c r="D148">
+        <v>3</v>
+      </c>
+      <c r="E148" s="5">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>35.74</v>
+      </c>
+      <c r="B149" s="2">
+        <v>3789740</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+      <c r="D149">
+        <v>3</v>
+      </c>
+      <c r="E149" s="5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>29.49</v>
+      </c>
+      <c r="B150" s="2">
+        <v>3286960</v>
+      </c>
+      <c r="C150">
+        <v>3</v>
+      </c>
+      <c r="D150">
+        <v>4</v>
+      </c>
+      <c r="E150" s="5">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>26.99</v>
+      </c>
+      <c r="B151" s="2">
+        <v>2825020</v>
+      </c>
+      <c r="C151">
+        <v>3</v>
+      </c>
+      <c r="D151">
+        <v>3</v>
+      </c>
+      <c r="E151" s="5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>22.18</v>
+      </c>
+      <c r="B152" s="2">
+        <v>2551080</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+      <c r="D152">
+        <v>4</v>
+      </c>
+      <c r="E152" s="5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>35.26</v>
+      </c>
+      <c r="B153" s="2">
+        <v>3468660</v>
+      </c>
+      <c r="C153">
+        <v>3</v>
+      </c>
+      <c r="D153">
+        <v>5</v>
+      </c>
+      <c r="E153" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>35.340000000000003</v>
+      </c>
+      <c r="B154" s="2">
+        <v>3875360</v>
+      </c>
+      <c r="C154">
+        <v>4</v>
+      </c>
+      <c r="D154">
+        <v>3</v>
+      </c>
+      <c r="E154" s="5">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>49.75</v>
+      </c>
+      <c r="B155" s="2">
+        <v>5056000</v>
+      </c>
+      <c r="C155">
+        <v>4</v>
+      </c>
+      <c r="D155">
+        <v>5</v>
+      </c>
+      <c r="E155" s="5">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>26.18</v>
+      </c>
+      <c r="B156" s="2">
+        <v>2791820</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+      <c r="D156">
+        <v>4</v>
+      </c>
+      <c r="E156" s="5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>46.55</v>
+      </c>
+      <c r="B157" s="2">
+        <v>4788800</v>
+      </c>
+      <c r="C157">
+        <v>4</v>
+      </c>
+      <c r="D157">
+        <v>6</v>
+      </c>
+      <c r="E157" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>34.89</v>
+      </c>
+      <c r="B158" s="2">
+        <v>4077900</v>
+      </c>
+      <c r="C158">
+        <v>4</v>
+      </c>
+      <c r="D158">
+        <v>4</v>
+      </c>
+      <c r="E158" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>45.26</v>
+      </c>
+      <c r="B159" s="2">
+        <v>5052300</v>
+      </c>
+      <c r="C159">
+        <v>5</v>
+      </c>
+      <c r="D159">
+        <v>5</v>
+      </c>
+      <c r="E159" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>46.76</v>
+      </c>
+      <c r="B160" s="2">
+        <v>5229800</v>
+      </c>
+      <c r="C160">
+        <v>4</v>
+      </c>
+      <c r="D160">
+        <v>6</v>
+      </c>
+      <c r="E160" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A5:E160">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="greaterThanOrEqual" val="3"/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="lessThanOrEqual" val="6"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G156"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>40.159999999999997</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4536960</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5">
+        <f>C2+D2</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>28.68</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3188760</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5">
+        <f>C3+D3</f>
+        <v>4</v>
+      </c>
+      <c r="G3" s="2">
+        <f>SUBTOTAL(4,B3:B152)</f>
+        <v>3188760</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>27.32</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3137880</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <f>C4+D4</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>46.26</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4992260</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5">
+        <f>C5+D5</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>29.92</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3112000</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
+        <f>C6+D6</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>26.75</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3055750</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5">
+        <f>C7+D7</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>28.07</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3051210</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5">
+        <f>C8+D8</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>33.56</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3757360</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5">
+        <f>C9+D9</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>27.94</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3049880</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5">
+        <f>C10+D10</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>34.51</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3489430</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="5">
+        <f>C11+D11</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>28.65</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3045000</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5">
+        <f>C12+D12</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>26.62</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3034960</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" s="5">
+        <f>C13+D13</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>29.6</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2981600</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5">
+        <f>C14+D14</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>35.06</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3635880</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" s="5">
+        <f>C15+D15</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>29.57</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2979580</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" s="5">
+        <f>C16+D16</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>29.84</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2944960</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="5">
+        <f>C17+D17</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>29.76</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2937440</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="5">
+        <f>C18+D18</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>26.94</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2934820</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" s="5">
+        <f>C19+D19</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>38.94</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3842480</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20" s="5">
+        <f>C20+D20</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>40.93</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4352070</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21" s="5">
+        <f>C21+D21</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>27.62</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2866760</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" s="5">
+        <f>C22+D22</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>35.479999999999997</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4031840</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" s="5">
+        <f>C23+D23</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>35.78</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4044240</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" s="5">
+        <f>C24+D24</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>46.27</v>
+      </c>
+      <c r="B25" s="2">
+        <v>5158350</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25" s="5">
+        <f>C25+D25</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26.82</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2855640</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" s="5">
+        <f>C26+D26</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4115600</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27" s="5">
+        <f>C27+D27</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26.99</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2825020</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" s="5">
+        <f>C28+D28</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>31.24</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3261520</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" s="5">
+        <f>C29+D29</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28.91</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2819720</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" s="5">
+        <f>C30+D30</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>42.77</v>
+      </c>
+      <c r="B31" s="2">
+        <v>4725310</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31" s="5">
+        <f>C31+D31</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>25.27</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2620650</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32" s="5">
+        <f>C32+D32</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3953040</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33" s="5">
+        <f>C33+D33</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>26.18</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2791820</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34" s="5">
+        <f>C34+D34</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>25.36</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2786720</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35" s="5">
+        <f>C35+D35</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34.26</v>
+      </c>
+      <c r="B36" s="2">
+        <v>3568960</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36" s="5">
+        <f>C36+D36</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>24.36</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2726520</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" s="5">
+        <f>C37+D37</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>27.31</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2692520</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" s="5">
+        <f>C38+D38</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>30.38</v>
+      </c>
+      <c r="B39" s="2">
+        <v>3339520</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39" s="5">
+        <f>C39+D39</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>48.05</v>
+      </c>
+      <c r="B40" s="2">
+        <v>4632550</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40" s="5">
+        <f>C40+D40</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>27.21</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2568900</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" s="5">
+        <f>C41+D41</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="B42" s="2">
+        <v>3610000</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42" s="5">
+        <f>C42+D42</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>22.94</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2562820</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43" s="5">
+        <f>C43+D43</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>39.630000000000003</v>
+      </c>
+      <c r="B44" s="2">
+        <v>3865960</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44" s="5">
+        <f>C44+D44</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>39.03</v>
+      </c>
+      <c r="B45" s="2">
+        <v>3887850</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45" s="5">
+        <f>C45+D45</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44.06</v>
+      </c>
+      <c r="B46" s="2">
+        <v>4617880</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46" s="5">
+        <f>C46+D46</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>22.18</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2551080</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47" s="5">
+        <f>C47+D47</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>44.64</v>
+      </c>
+      <c r="B48" s="2">
+        <v>4491520</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>6</v>
+      </c>
+      <c r="E48" s="5">
+        <f>C48+D48</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>25.54</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2549680</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49" s="5">
+        <f>C49+D49</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>42.79</v>
+      </c>
+      <c r="B50" s="2">
+        <v>4750160</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50" s="5">
+        <f>C50+D50</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>40.76</v>
+      </c>
+      <c r="B51" s="2">
+        <v>4232960</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51" s="5">
+        <f>C51+D51</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>28.31</v>
+      </c>
+      <c r="B52" s="2">
+        <v>3135930</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52" s="5">
+        <f>C52+D52</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>45.08</v>
+      </c>
+      <c r="B53" s="2">
+        <v>4923240</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53" s="5">
+        <f>C53+D53</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>24.01</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2541000</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" s="5">
+        <f>C54+D54</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>32.36</v>
+      </c>
+      <c r="B55" s="2">
+        <v>3281840</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55" s="5">
+        <f>C55+D55</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>25.53</v>
+      </c>
+      <c r="B56" s="2">
+        <v>2519820</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" s="5">
+        <f>C56+D56</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>25.5</v>
+      </c>
+      <c r="B57" s="2">
+        <v>2495000</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57" s="5">
+        <f>C57+D57</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>47.3</v>
+      </c>
+      <c r="B58" s="2">
+        <v>4517000</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58" s="5">
+        <f>C58+D58</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>47.42</v>
+      </c>
+      <c r="B59" s="2">
+        <v>4907160</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59" s="5">
+        <f>C59+D59</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>34.119999999999997</v>
+      </c>
+      <c r="B60" s="2">
+        <v>3589640</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60" s="5">
+        <f>C60+D60</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>24.55</v>
+      </c>
+      <c r="B61" s="2">
+        <v>2492250</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61" s="5">
+        <f>C61+D61</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>23.52</v>
+      </c>
+      <c r="B62" s="2">
+        <v>2488480</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62" s="5">
+        <f>C62+D62</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>21.88</v>
+      </c>
+      <c r="B63" s="2">
+        <v>2481160</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63" s="5">
+        <f>C63+D63</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>46</v>
+      </c>
+      <c r="B64" s="2">
+        <v>4702000</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64" s="5">
+        <f>C64+D64</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>22.81</v>
+      </c>
+      <c r="B65" s="2">
+        <v>2466620</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65" s="5">
+        <f>C65+D65</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>39.9</v>
+      </c>
+      <c r="B66" s="2">
+        <v>4250000</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66" s="5">
+        <f>C66+D66</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>32.619999999999997</v>
+      </c>
+      <c r="B67" s="2">
+        <v>3376760</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67" s="5">
+        <f>C67+D67</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>40.909999999999997</v>
+      </c>
+      <c r="B68" s="2">
+        <v>4799190</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+      <c r="D68">
+        <v>6</v>
+      </c>
+      <c r="E68" s="5">
+        <f>C68+D68</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>37.26</v>
+      </c>
+      <c r="B69" s="2">
+        <v>4338600</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69" s="5">
+        <f>C69+D69</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>22.62</v>
+      </c>
+      <c r="B70" s="2">
+        <v>2394140</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70" s="5">
+        <f>C70+D70</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>37.159999999999997</v>
+      </c>
+      <c r="B71" s="2">
+        <v>3698720</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71" s="5">
+        <f>C71+D71</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>21.12</v>
+      </c>
+      <c r="B72" s="2">
+        <v>2335360</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72" s="5">
+        <f>C72+D72</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>41.44</v>
+      </c>
+      <c r="B73" s="2">
+        <v>4341120</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>5</v>
+      </c>
+      <c r="E73" s="5">
+        <f>C73+D73</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>44.7</v>
+      </c>
+      <c r="B74" s="2">
+        <v>4497100</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>6</v>
+      </c>
+      <c r="E74" s="5">
+        <f>C74+D74</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>32.67</v>
+      </c>
+      <c r="B75" s="2">
+        <v>3421660</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75" s="5">
+        <f>C75+D75</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>31.12</v>
+      </c>
+      <c r="B76" s="2">
+        <v>3465360</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76" s="5">
+        <f>C76+D76</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>46.88</v>
+      </c>
+      <c r="B77" s="2">
+        <v>4659840</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77" s="5">
+        <f>C77+D77</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>22.42</v>
+      </c>
+      <c r="B78" s="2">
+        <v>2200220</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78" s="5">
+        <f>C78+D78</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>24.78</v>
+      </c>
+      <c r="B79" s="2">
+        <v>2722780</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79" s="5">
+        <f>C79+D79</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>43.45</v>
+      </c>
+      <c r="B80" s="2">
+        <v>4882250</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80">
+        <v>6</v>
+      </c>
+      <c r="E80" s="5">
+        <f>C80+D80</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>49.3</v>
+      </c>
+      <c r="B81" s="2">
+        <v>5515100</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81" s="5">
+        <f>C81+D81</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>41.03</v>
+      </c>
+      <c r="B82" s="2">
+        <v>4299910</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>6</v>
+      </c>
+      <c r="E82" s="5">
+        <f>C82+D82</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>40.24</v>
+      </c>
+      <c r="B83" s="2">
+        <v>3982080</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="D83">
+        <v>5</v>
+      </c>
+      <c r="E83" s="5">
+        <f>C83+D83</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>19.48</v>
+      </c>
+      <c r="B84" s="2">
+        <v>2185400</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84" s="5">
+        <f>C84+D84</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="B85" s="2">
+        <v>2172180</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" s="5">
+        <f>C85+D85</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>31.77</v>
+      </c>
+      <c r="B86" s="2">
+        <v>3619390</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+      <c r="E86" s="5">
+        <f>C86+D86</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>22.52</v>
+      </c>
+      <c r="B87" s="2">
+        <v>2404440</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+      <c r="E87" s="5">
+        <f>C87+D87</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>46.27</v>
+      </c>
+      <c r="B88" s="2">
+        <v>4701920</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+      <c r="E88" s="5">
+        <f>C88+D88</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>22.53</v>
+      </c>
+      <c r="B89" s="2">
+        <v>2170230</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89" s="5">
+        <f>C89+D89</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>39.68</v>
+      </c>
+      <c r="B90" s="2">
+        <v>4287360</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90" s="5">
+        <f>C90+D90</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>31.23</v>
+      </c>
+      <c r="B91" s="2">
+        <v>3675300</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+      <c r="E91" s="5">
+        <f>C91+D91</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>27.61</v>
+      </c>
+      <c r="B92" s="2">
+        <v>3091440</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+      <c r="E92" s="5">
+        <f>C92+D92</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>38.65</v>
+      </c>
+      <c r="B93" s="2">
+        <v>3951750</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <v>5</v>
+      </c>
+      <c r="E93" s="5">
+        <f>C93+D93</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>33.71</v>
+      </c>
+      <c r="B94" s="2">
+        <v>3348740</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94" s="5">
+        <f>C94+D94</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>18.86</v>
+      </c>
+      <c r="B95" s="2">
+        <v>2059160</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" s="5">
+        <f>C95+D95</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>32.15</v>
+      </c>
+      <c r="B96" s="2">
+        <v>3125650</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+      <c r="E96" s="5">
+        <f>C96+D96</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>44.66</v>
+      </c>
+      <c r="B97" s="2">
+        <v>4453380</v>
+      </c>
+      <c r="C97">
+        <v>5</v>
+      </c>
+      <c r="D97">
+        <v>5</v>
+      </c>
+      <c r="E97" s="5">
+        <f>C97+D97</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>42.94</v>
+      </c>
+      <c r="B98" s="2">
+        <v>4616940</v>
+      </c>
+      <c r="C98">
+        <v>4</v>
+      </c>
+      <c r="D98">
+        <v>5</v>
+      </c>
+      <c r="E98" s="5">
+        <f>C98+D98</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>47.78</v>
+      </c>
+      <c r="B99" s="2">
+        <v>5038000</v>
+      </c>
+      <c r="C99">
+        <v>5</v>
+      </c>
+      <c r="D99">
+        <v>4</v>
+      </c>
+      <c r="E99" s="5">
+        <f>C99+D99</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>30.36</v>
+      </c>
+      <c r="B100" s="2">
+        <v>3216000</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100" s="5">
+        <f>C100+D100</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>20.8</v>
+      </c>
+      <c r="B101" s="2">
+        <v>2054400</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101" s="5">
+        <f>C101+D101</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>35.29</v>
+      </c>
+      <c r="B102" s="2">
+        <v>3703130</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102" s="5">
+        <f>C102+D102</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>43.16</v>
+      </c>
+      <c r="B103" s="2">
+        <v>4230720</v>
+      </c>
+      <c r="C103">
+        <v>5</v>
+      </c>
+      <c r="D103">
+        <v>4</v>
+      </c>
+      <c r="E103" s="5">
+        <f>C103+D103</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>35.770000000000003</v>
+      </c>
+      <c r="B104" s="2">
+        <v>3642380</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+      <c r="D104">
+        <v>5</v>
+      </c>
+      <c r="E104" s="5">
+        <f>C104+D104</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>33.4</v>
+      </c>
+      <c r="B105" s="2">
+        <v>3366200</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+      <c r="D105">
+        <v>5</v>
+      </c>
+      <c r="E105" s="5">
+        <f>C105+D105</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>19.36</v>
+      </c>
+      <c r="B106" s="2">
+        <v>2054080</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106" s="5">
+        <f>C106+D106</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>44.48</v>
+      </c>
+      <c r="B107" s="2">
+        <v>5034880</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107">
+        <v>6</v>
+      </c>
+      <c r="E107" s="5">
+        <f>C107+D107</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>18.2</v>
+      </c>
+      <c r="B108" s="2">
+        <v>2047400</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108" s="5">
+        <f>C108+D108</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>45.48</v>
+      </c>
+      <c r="B109" s="2">
+        <v>4529640</v>
+      </c>
+      <c r="C109">
+        <v>5</v>
+      </c>
+      <c r="D109">
+        <v>5</v>
+      </c>
+      <c r="E109" s="5">
+        <f>C109+D109</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>43.63</v>
+      </c>
+      <c r="B110" s="2">
+        <v>4357590</v>
+      </c>
+      <c r="C110">
+        <v>5</v>
+      </c>
+      <c r="D110">
+        <v>5</v>
+      </c>
+      <c r="E110" s="5">
+        <f>C110+D110</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>37.42</v>
+      </c>
+      <c r="B111" s="2">
+        <v>3814900</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+      <c r="D111">
+        <v>5</v>
+      </c>
+      <c r="E111" s="5">
+        <f>C111+D111</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>43.26</v>
+      </c>
+      <c r="B112" s="2">
+        <v>4392960</v>
+      </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+      <c r="E112" s="5">
+        <f>C112+D112</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>21.12</v>
+      </c>
+      <c r="B113" s="2">
+        <v>2041920</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113" s="5">
+        <f>C113+D113</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>28.16</v>
+      </c>
+      <c r="B114" s="2">
+        <v>2923360</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+      <c r="D114">
+        <v>4</v>
+      </c>
+      <c r="E114" s="5">
+        <f>C114+D114</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>43.24</v>
+      </c>
+      <c r="B115" s="2">
+        <v>4620760</v>
+      </c>
+      <c r="C115">
+        <v>5</v>
+      </c>
+      <c r="D115">
+        <v>6</v>
+      </c>
+      <c r="E115" s="5">
+        <f>C115+D115</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>19.98</v>
+      </c>
+      <c r="B116" s="2">
+        <v>2018140</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116">
+        <v>3</v>
+      </c>
+      <c r="E116" s="5">
+        <f>C116+D116</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>35.57</v>
+      </c>
+      <c r="B117" s="2">
+        <v>4050420</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>5</v>
+      </c>
+      <c r="E117" s="5">
+        <f>C117+D117</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>19.8</v>
+      </c>
+      <c r="B118" s="2">
+        <v>1941200</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118" s="5">
+        <f>C118+D118</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>17.3</v>
+      </c>
+      <c r="B119" s="2">
+        <v>1933800</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="E119" s="5">
+        <f>C119+D119</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>17.73</v>
+      </c>
+      <c r="B120" s="2">
+        <v>1928460</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120" s="5">
+        <f>C120+D120</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="B121" s="2">
+        <v>1921600</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121" s="5">
+        <f>C121+D121</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>19.72</v>
+      </c>
+      <c r="B122" s="2">
+        <v>1894520</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122" s="5">
+        <f>C122+D122</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>29.58</v>
+      </c>
+      <c r="B123" s="2">
+        <v>3030100</v>
+      </c>
+      <c r="C123">
+        <v>3</v>
+      </c>
+      <c r="D123">
+        <v>4</v>
+      </c>
+      <c r="E123" s="5">
+        <f>C123+D123</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>36.92</v>
+      </c>
+      <c r="B124" s="2">
+        <v>3653560</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124">
+        <v>4</v>
+      </c>
+      <c r="E124" s="5">
+        <f>C124+D124</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>48.65</v>
+      </c>
+      <c r="B125" s="2">
+        <v>5067700</v>
+      </c>
+      <c r="C125">
+        <v>5</v>
+      </c>
+      <c r="D125">
+        <v>5</v>
+      </c>
+      <c r="E125" s="5">
+        <f>C125+D125</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>39.229999999999997</v>
+      </c>
+      <c r="B126" s="2">
+        <v>3908390</v>
+      </c>
+      <c r="C126">
+        <v>3</v>
+      </c>
+      <c r="D126">
+        <v>5</v>
+      </c>
+      <c r="E126" s="5">
+        <f>C126+D126</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>17.64</v>
+      </c>
+      <c r="B127" s="2">
+        <v>1888720</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+      <c r="D127">
+        <v>3</v>
+      </c>
+      <c r="E127" s="5">
+        <f>C127+D127</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>35.35</v>
+      </c>
+      <c r="B128" s="2">
+        <v>3861050</v>
+      </c>
+      <c r="C128">
+        <v>3</v>
+      </c>
+      <c r="D128">
+        <v>4</v>
+      </c>
+      <c r="E128" s="5">
+        <f>C128+D128</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>37.25</v>
+      </c>
+      <c r="B129" s="2">
+        <v>4005000</v>
+      </c>
+      <c r="C129">
+        <v>4</v>
+      </c>
+      <c r="D129">
+        <v>5</v>
+      </c>
+      <c r="E129" s="5">
+        <f>C129+D129</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>18.63</v>
+      </c>
+      <c r="B130" s="2">
+        <v>1868480</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130" s="5">
+        <f>C130+D130</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>44.41</v>
+      </c>
+      <c r="B131" s="2">
+        <v>4874230</v>
+      </c>
+      <c r="C131">
+        <v>5</v>
+      </c>
+      <c r="D131">
+        <v>5</v>
+      </c>
+      <c r="E131" s="5">
+        <f>C131+D131</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>42.61</v>
+      </c>
+      <c r="B132" s="2">
+        <v>4373170</v>
+      </c>
+      <c r="C132">
+        <v>4</v>
+      </c>
+      <c r="D132">
+        <v>4</v>
+      </c>
+      <c r="E132" s="5">
+        <f>C132+D132</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>43.59</v>
+      </c>
+      <c r="B133" s="2">
+        <v>4330280</v>
+      </c>
+      <c r="C133">
+        <v>4</v>
+      </c>
+      <c r="D133">
+        <v>6</v>
+      </c>
+      <c r="E133" s="5">
+        <f>C133+D133</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>15.48</v>
+      </c>
+      <c r="B134" s="2">
+        <v>1822800</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="E134" s="5">
+        <f>C134+D134</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>17.11</v>
+      </c>
+      <c r="B135" s="2">
+        <v>1768340</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+      <c r="D135">
+        <v>3</v>
+      </c>
+      <c r="E135" s="5">
+        <f>C135+D135</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>30.91</v>
+      </c>
+      <c r="B136" s="2">
+        <v>3229180</v>
+      </c>
+      <c r="C136">
+        <v>4</v>
+      </c>
+      <c r="D136">
+        <v>3</v>
+      </c>
+      <c r="E136" s="5">
+        <f>C136+D136</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>15.6</v>
+      </c>
+      <c r="B137" s="2">
+        <v>1651200</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137" s="5">
+        <f>C137+D137</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="B138" s="2">
+        <v>4612100</v>
+      </c>
+      <c r="C138">
+        <v>5</v>
+      </c>
+      <c r="D138">
+        <v>5</v>
+      </c>
+      <c r="E138" s="5">
+        <f>C138+D138</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>41.08</v>
+      </c>
+      <c r="B139" s="2">
+        <v>4409080</v>
+      </c>
+      <c r="C139">
+        <v>5</v>
+      </c>
+      <c r="D139">
+        <v>4</v>
+      </c>
+      <c r="E139" s="5">
+        <f>C139+D139</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>16</v>
+      </c>
+      <c r="B140" s="2">
+        <v>1644000</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140" s="5">
+        <f>C140+D140</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>28.04</v>
+      </c>
+      <c r="B141" s="2">
+        <v>3276360</v>
+      </c>
+      <c r="C141">
+        <v>3</v>
+      </c>
+      <c r="D141">
+        <v>4</v>
+      </c>
+      <c r="E141" s="5">
+        <f>C141+D141</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>36.520000000000003</v>
+      </c>
+      <c r="B142" s="2">
+        <v>3895480</v>
+      </c>
+      <c r="C142">
+        <v>4</v>
+      </c>
+      <c r="D142">
+        <v>5</v>
+      </c>
+      <c r="E142" s="5">
+        <f>C142+D142</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>33.229999999999997</v>
+      </c>
+      <c r="B143" s="2">
+        <v>3802380</v>
+      </c>
+      <c r="C143">
+        <v>4</v>
+      </c>
+      <c r="D143">
+        <v>5</v>
+      </c>
+      <c r="E143" s="5">
+        <f>C143+D143</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>39.72</v>
+      </c>
+      <c r="B144" s="2">
+        <v>3774800</v>
+      </c>
+      <c r="C144">
+        <v>4</v>
+      </c>
+      <c r="D144">
+        <v>3</v>
+      </c>
+      <c r="E144" s="5">
+        <f>C144+D144</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>35.74</v>
+      </c>
+      <c r="B145" s="2">
+        <v>3789740</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+      <c r="D145">
+        <v>3</v>
+      </c>
+      <c r="E145" s="5">
+        <f>C145+D145</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>29.49</v>
+      </c>
+      <c r="B146" s="2">
+        <v>3286960</v>
+      </c>
+      <c r="C146">
+        <v>3</v>
+      </c>
+      <c r="D146">
+        <v>4</v>
+      </c>
+      <c r="E146" s="5">
+        <f>C146+D146</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>15.82</v>
+      </c>
+      <c r="B147" s="2">
+        <v>1634540</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+      <c r="E147" s="5">
+        <f>C147+D147</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>16.32</v>
+      </c>
+      <c r="B148" s="2">
+        <v>1581440</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148" s="5">
+        <f>C148+D148</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>35.26</v>
+      </c>
+      <c r="B149" s="2">
+        <v>3468660</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+      <c r="D149">
+        <v>5</v>
+      </c>
+      <c r="E149" s="5">
+        <f>C149+D149</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>35.340000000000003</v>
+      </c>
+      <c r="B150" s="2">
+        <v>3875360</v>
+      </c>
+      <c r="C150">
+        <v>4</v>
+      </c>
+      <c r="D150">
+        <v>3</v>
+      </c>
+      <c r="E150" s="5">
+        <f>C150+D150</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>49.75</v>
+      </c>
+      <c r="B151" s="2">
+        <v>5056000</v>
+      </c>
+      <c r="C151">
+        <v>4</v>
+      </c>
+      <c r="D151">
+        <v>5</v>
+      </c>
+      <c r="E151" s="5">
+        <f>C151+D151</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>15.2</v>
+      </c>
+      <c r="B152" s="2">
+        <v>1468000</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="E152" s="5">
+        <f>C152+D152</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>46.55</v>
+      </c>
+      <c r="B153" s="2">
+        <v>4788800</v>
+      </c>
+      <c r="C153">
+        <v>4</v>
+      </c>
+      <c r="D153">
+        <v>6</v>
+      </c>
+      <c r="E153" s="5">
+        <f t="shared" ref="E131:E156" si="0">C153+D153</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>34.89</v>
+      </c>
+      <c r="B154" s="2">
+        <v>4077900</v>
+      </c>
+      <c r="C154">
+        <v>4</v>
+      </c>
+      <c r="D154">
+        <v>4</v>
+      </c>
+      <c r="E154" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>45.26</v>
+      </c>
+      <c r="B155" s="2">
+        <v>5052300</v>
+      </c>
+      <c r="C155">
+        <v>5</v>
+      </c>
+      <c r="D155">
+        <v>5</v>
+      </c>
+      <c r="E155" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>46.76</v>
+      </c>
+      <c r="B156" s="2">
+        <v>5229800</v>
+      </c>
+      <c r="C156">
+        <v>4</v>
+      </c>
+      <c r="D156">
+        <v>6</v>
+      </c>
+      <c r="E156" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E156">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="lessThanOrEqual" val="30"/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="lessThanOrEqual" val="6"/>
+      </customFilters>
+    </filterColumn>
+    <sortState ref="A3:E152">
+      <sortCondition descending="1" ref="B1:B156"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Used_x0020_in_x0020_Chapter xmlns="d1607db4-bd3f-4f82-a312-bf7e283d0a6b">true</Used_x0020_in_x0020_Chapter>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF8E4BBD310ADB419B3C5F1ACE4D113D" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="63e1bd94a874076348984a0131457edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d1607db4-bd3f-4f82-a312-bf7e283d0a6b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c9989741aedae2f07a76d9f40ef2a18" ns2:_="">
     <xsd:import namespace="d1607db4-bd3f-4f82-a312-bf7e283d0a6b"/>
@@ -2714,24 +9225,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96C007-0B6E-48A2-8994-8B6C31AB568A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d1607db4-bd3f-4f82-a312-bf7e283d0a6b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Used_x0020_in_x0020_Chapter xmlns="d1607db4-bd3f-4f82-a312-bf7e283d0a6b">true</Used_x0020_in_x0020_Chapter>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93500E59-78EE-48D4-AA52-7DA38FAD0A32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE7710A0-3E47-4582-AEA5-39F1D0DC409A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2746,21 +9257,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93500E59-78EE-48D4-AA52-7DA38FAD0A32}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96C007-0B6E-48A2-8994-8B6C31AB568A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d1607db4-bd3f-4f82-a312-bf7e283d0a6b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>